--- a/data/trans_bre/P08_1_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P08_1_R-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.220027725875622</v>
+        <v>0.9059360775318879</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.491821149624625</v>
+        <v>-4.078726763799099</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.555234998593485</v>
+        <v>-2.951113518971943</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.832863661175344</v>
+        <v>1.909913792049074</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1126346075396894</v>
+        <v>0.08006656687097305</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.338711899180642</v>
+        <v>-0.3154772307530528</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.222742926331079</v>
+        <v>-0.2402239411531669</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1803736647912956</v>
+        <v>0.1685471911831661</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.03149250858557</v>
+        <v>10.82026530700992</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.686828106249118</v>
+        <v>5.401391674397648</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.899115161866018</v>
+        <v>6.740368591051806</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.688923959018195</v>
+        <v>8.751451366646096</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.545568587221545</v>
+        <v>1.470311753744081</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6519968180060387</v>
+        <v>0.6138354338288197</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8892628334309799</v>
+        <v>0.8592115686482508</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.424108938937658</v>
+        <v>1.399091253098792</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.957412541577513</v>
+        <v>-2.989492337206555</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.636285249615282</v>
+        <v>-6.218366040456544</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.17007537742877</v>
+        <v>-3.958784732927211</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.39405142081314</v>
+        <v>-1.201849741712393</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4177295400944676</v>
+        <v>-0.434615347660848</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.395776062028695</v>
+        <v>-0.439235509368729</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3606174474299265</v>
+        <v>-0.334889289712704</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.10536023927634</v>
+        <v>-0.09722490497374228</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.015783497358155</v>
+        <v>4.091094047000488</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.971607182330091</v>
+        <v>4.327540685305011</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.932429947577865</v>
+        <v>5.019548986053903</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.892668682480224</v>
+        <v>7.044308243544727</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.191324323390428</v>
+        <v>1.131403773670365</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4335716847575527</v>
+        <v>0.4852785070286635</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6438830060281939</v>
+        <v>0.6598371591470451</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7486654351855004</v>
+        <v>0.7431728508278749</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.843598821515323</v>
+        <v>5.058919372838611</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.663433415240317</v>
+        <v>1.704413665362395</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.119324763209203</v>
+        <v>1.694370734011864</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.799506540242912</v>
+        <v>4.717831978216799</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.380368896231776</v>
+        <v>0.3642154642457036</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09531225189530967</v>
+        <v>0.08499343312918411</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06243513748849351</v>
+        <v>0.1056429858925408</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2573328502228895</v>
+        <v>0.2543932795085763</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.24336514086099</v>
+        <v>19.25648061995532</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.93076616614386</v>
+        <v>14.70381678168801</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.95986791873897</v>
+        <v>16.94277456769411</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.02647607944505</v>
+        <v>16.8622653550051</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.972098497663629</v>
+        <v>1.870553949750601</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9852094072637497</v>
+        <v>0.9796422095627636</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.221899799178104</v>
+        <v>1.34285386892758</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.192712920915791</v>
+        <v>1.201544174714237</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.8311661045734442</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.476553722765678</v>
+        <v>-2.476553722765682</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2669643216867765</v>
@@ -949,7 +949,7 @@
         <v>0.05273146451481116</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.134365840662804</v>
+        <v>-0.1343658406628042</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.638836473969364</v>
+        <v>0.6437580820701305</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.543793917839127</v>
+        <v>-5.03544590779811</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.430496997821658</v>
+        <v>-2.755452034639593</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.338651492650668</v>
+        <v>-5.700482856267127</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03973053859433427</v>
+        <v>0.0426248212015323</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2483450797292594</v>
+        <v>-0.2741843451919111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1393668038190564</v>
+        <v>-0.1610555819870544</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2639580576992031</v>
+        <v>-0.285371188641599</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.76027326027884</v>
+        <v>7.549583029479436</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.188932500704195</v>
+        <v>2.326284048972794</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.292193378741609</v>
+        <v>4.32036272337715</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5568624574411566</v>
+        <v>0.6977325221074338</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5898178770812732</v>
+        <v>0.5595645814711341</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1406335948166829</v>
+        <v>0.1526882273337012</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.301481386388166</v>
+        <v>0.3047286202054417</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.03481381171945732</v>
+        <v>0.04293488972715982</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>8.546019826071708</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9.716201901279742</v>
+        <v>9.716201901279744</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4086152321239217</v>
@@ -1049,7 +1049,7 @@
         <v>0.4217560691640994</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5146004613391398</v>
+        <v>0.5146004613391401</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2148567334931866</v>
+        <v>0.6476523762908843</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.37064371434682</v>
+        <v>11.60466401742824</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.152910871825618</v>
+        <v>3.946430316191892</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.97012600822262</v>
+        <v>5.715998046514483</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.004135013383334507</v>
+        <v>0.03415936230249746</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5572465730353056</v>
+        <v>0.5819309301503026</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1773971576712668</v>
+        <v>0.1783318174594015</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2712079851692202</v>
+        <v>0.2580567472438902</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.54853394205637</v>
+        <v>10.50193324333958</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.05292026039855</v>
+        <v>21.15464112800863</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.15289571513306</v>
+        <v>12.83235215142301</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.59305446891805</v>
+        <v>13.52609079809459</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.9147644309191147</v>
+        <v>0.9221459577193704</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.424535179538901</v>
+        <v>1.476598770336257</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7271989457147168</v>
+        <v>0.725480572029649</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8223582681927974</v>
+        <v>0.8381006412135199</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>12.68506359905447</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>18.12210602609293</v>
+        <v>18.12210602609294</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>24.36582631255072</v>
+        <v>23.8114516007891</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>26.9052391390538</v>
+        <v>26.33764511900795</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>24.7663975176807</v>
+        <v>24.32310769105223</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26.04408409868925</v>
+        <v>26.36051059196494</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>5.18613858182704</v>
+        <v>5.125520725222867</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>4.124690410037815</v>
+        <v>3.857019155118521</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>5.25464485156167</v>
+        <v>5.389428890112918</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>6.982028691422687</v>
+        <v>7.430963081446355</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>30.14859695436413</v>
+        <v>30.24475225867324</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>34.507503059765</v>
+        <v>33.99239023105736</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>31.42531794681553</v>
+        <v>31.16175009216386</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>32.49020979889618</v>
+        <v>32.4626040593181</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>23.938299456832</v>
+        <v>24.44535044134735</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>18.72476425290918</v>
+        <v>17.67357313691152</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>34.66492726610696</v>
+        <v>37.4084253445313</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>54.56845382269355</v>
+        <v>47.14091514835236</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>8.657872287694007</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.98654888094616</v>
+        <v>7.986548880946154</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9180892141040704</v>
@@ -1249,7 +1249,7 @@
         <v>0.6231178903094807</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.5570029416790534</v>
+        <v>0.557002941679053</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.54128339808493</v>
+        <v>8.527642726204297</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.721040232387519</v>
+        <v>8.553117291132498</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.866939523206779</v>
+        <v>6.813643078894442</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.312652440608319</v>
+        <v>6.31004084678833</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7077075444621317</v>
+        <v>0.6939301567401658</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5533259348355467</v>
+        <v>0.5520407352130151</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4650994551157532</v>
+        <v>0.4590929029791335</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.414587710382033</v>
+        <v>0.4012642014842015</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.05609660998487</v>
+        <v>11.94426319397249</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.60722227572288</v>
+        <v>12.64631472861918</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.62870704455571</v>
+        <v>10.4108107312729</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.458517870184115</v>
+        <v>9.410018569086111</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.156906275192949</v>
+        <v>1.135612504734578</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9301191187691421</v>
+        <v>0.915792604115476</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8205031320273692</v>
+        <v>0.795845432117178</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.7048453342218826</v>
+        <v>0.7027706781706754</v>
       </c>
     </row>
     <row r="25">
